--- a/data_preparation/inputs_folder_name/Historical Data.xlsx
+++ b/data_preparation/inputs_folder_name/Historical Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Escritorio\2023\Forecasting\dta\data_preparation\inputs_folder_name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE20CF2-8FAF-4C8A-B8CD-50C13AA77686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB119F-E5B3-4E39-8898-A0D08EFBE354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="484" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Family</t>
   </si>
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -283,6 +283,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -714,9 +715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL349"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I3"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31686,11 +31687,11 @@
   </sheetData>
   <autoFilter ref="A1:CJ349" xr:uid="{174B6863-E0AD-484B-BD96-C291EA0901D5}"/>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D349 E2:F2">
+    <cfRule type="duplicateValues" dxfId="3" priority="40"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D349 E2:F2">
-    <cfRule type="duplicateValues" dxfId="2" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -31699,10 +31700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D4E935-D316-41FC-9FF5-36404B1EBF02}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31711,7 +31712,7 @@
     <col min="8" max="8" width="46.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -31739,8 +31740,17 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -31765,9 +31775,20 @@
       <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -31776,15 +31797,19 @@
       <c r="H3" s="7"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H7" s="12"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D3 E2:F2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3 E2:F2">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
